--- a/Data new/MA-T12 data/PAR_PW_CN+_NG_1.xlsx
+++ b/Data new/MA-T12 data/PAR_PW_CN+_NG_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelyk/Documents/Research/Polychromy/MAT12 data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E2D6FE-64D7-A54F-9D65-984DAE86040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Color Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>QC JOB:</t>
   </si>
@@ -185,19 +191,28 @@
   </si>
   <si>
     <t>15d</t>
+  </si>
+  <si>
+    <t>PAR_PW_CN+_NG_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,17 +235,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +270,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -275,7 +305,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -304,7 +340,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -333,7 +375,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -362,7 +410,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -391,7 +445,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -420,7 +480,13 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -443,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -483,7 +549,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -517,6 +583,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -551,9 +618,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,18 +794,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,15 +815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -761,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -781,92 +851,92 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>36.1187585457056</v>
+        <v>36.118758545705603</v>
       </c>
       <c r="E5" s="2">
-        <v>21.1195144721097</v>
+        <v>21.119514472109699</v>
       </c>
       <c r="F5" s="2">
         <v>11.6945942066837</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>35.7500213958536</v>
+        <v>35.750021395853601</v>
       </c>
       <c r="E6" s="2">
-        <v>21.5118630135147</v>
+        <v>21.511863013514699</v>
       </c>
       <c r="F6" s="2">
-        <v>11.9580511175917</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>11.958051117591699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>35.5815482915708</v>
+        <v>35.581548291570797</v>
       </c>
       <c r="E7" s="2">
-        <v>21.3609535992515</v>
+        <v>21.360953599251499</v>
       </c>
       <c r="F7" s="2">
         <v>11.9230055520586</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>35.9204958171744</v>
+        <v>35.920495817174398</v>
       </c>
       <c r="E8" s="2">
-        <v>22.0725744765542</v>
+        <v>22.072574476554198</v>
       </c>
       <c r="F8" s="2">
         <v>13.0073535084714</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -878,61 +948,61 @@
         <v>23.4073012528481</v>
       </c>
       <c r="F9" s="2">
-        <v>14.3287886439364</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>14.328788643936401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>33.5819320966129</v>
+        <v>33.581932096612903</v>
       </c>
       <c r="E10" s="2">
-        <v>23.3713816237157</v>
+        <v>23.371381623715699</v>
       </c>
       <c r="F10" s="2">
         <v>13.724075270476</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>47.5153943120561</v>
+        <v>47.515394312056102</v>
       </c>
       <c r="E11" s="2">
         <v>16.1305759187828</v>
       </c>
       <c r="F11" s="2">
-        <v>10.0147389890472</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10.014738989047199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>39.6444195630211</v>
+        <v>39.644419563021103</v>
       </c>
       <c r="E12" s="2">
         <v>19.8624139820134</v>
@@ -941,52 +1011,52 @@
         <v>11.9627378246861</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>37.6214268231056</v>
+        <v>37.621426823105601</v>
       </c>
       <c r="E13" s="2">
-        <v>21.1273510878607</v>
+        <v>21.127351087860699</v>
       </c>
       <c r="F13" s="2">
-        <v>12.8541102442482</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>12.854110244248201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>35.9050269013338</v>
+        <v>35.905026901333798</v>
       </c>
       <c r="E14" s="2">
-        <v>23.0225812538158</v>
+        <v>23.022581253815801</v>
       </c>
       <c r="F14" s="2">
-        <v>14.2052606505252</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>14.205260650525201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -995,49 +1065,52 @@
         <v>36.7970945810304</v>
       </c>
       <c r="E15" s="2">
-        <v>24.2902620262717</v>
+        <v>24.290262026271702</v>
       </c>
       <c r="F15" s="2">
-        <v>16.1254848218752</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>16.125484821875201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2">
-        <v>38.5684122895741</v>
+        <v>38.568412289574098</v>
       </c>
       <c r="E16" s="2">
-        <v>24.8901602234182</v>
+        <v>24.890160223418199</v>
       </c>
       <c r="F16" s="2">
-        <v>16.5720130393288</v>
+        <v>16.572013039328802</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,15 +1118,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1065,22 +1138,25 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,15 +1164,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1200,84 +1276,84 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>0.063158540725708</v>
+        <v>6.3158540725708007E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0609063577651978</v>
+        <v>6.0906357765197802E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0604929351806641</v>
+        <v>6.0492935180664099E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0601435661315918</v>
+        <v>6.0143566131591802E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0595112705230713</v>
+        <v>5.95112705230713E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0592246150970459</v>
+        <v>5.92246150970459E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>0.0591710996627808</v>
+        <v>5.91710996627808E-2</v>
       </c>
       <c r="K4" s="3">
-        <v>0.0594870185852051</v>
+        <v>5.9487018585205102E-2</v>
       </c>
       <c r="L4" s="3">
-        <v>0.0596671104431152</v>
+        <v>5.96671104431152E-2</v>
       </c>
       <c r="M4" s="3">
-        <v>0.0600213766098022</v>
+        <v>6.0021376609802203E-2</v>
       </c>
       <c r="N4" s="3">
-        <v>0.0604872226715088</v>
+        <v>6.04872226715088E-2</v>
       </c>
       <c r="O4" s="3">
-        <v>0.0611467123031616</v>
+        <v>6.1146712303161599E-2</v>
       </c>
       <c r="P4" s="3">
-        <v>0.0621680068969727</v>
+        <v>6.2168006896972702E-2</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0630395841598511</v>
+        <v>6.30395841598511E-2</v>
       </c>
       <c r="R4" s="3">
-        <v>0.0642813539505005</v>
+        <v>6.4281353950500497E-2</v>
       </c>
       <c r="S4" s="3">
-        <v>0.0659773778915405</v>
+        <v>6.5977377891540498E-2</v>
       </c>
       <c r="T4" s="3">
-        <v>0.0692362403869629</v>
+        <v>6.9236240386962897E-2</v>
       </c>
       <c r="U4" s="3">
-        <v>0.0756964159011841</v>
+        <v>7.5696415901184103E-2</v>
       </c>
       <c r="V4" s="3">
-        <v>0.0882263088226318</v>
+        <v>8.8226308822631799E-2</v>
       </c>
       <c r="W4" s="3">
         <v>0.111446123123169</v>
       </c>
       <c r="X4" s="3">
-        <v>0.147960958480835</v>
+        <v>0.14796095848083499</v>
       </c>
       <c r="Y4" s="3">
         <v>0.186250381469727</v>
       </c>
       <c r="Z4" s="3">
-        <v>0.210080623626709</v>
+        <v>0.21008062362670901</v>
       </c>
       <c r="AA4" s="3">
         <v>0.220410041809082</v>
@@ -1289,212 +1365,212 @@
         <v>0.229580497741699</v>
       </c>
       <c r="AD4" s="3">
-        <v>0.231032218933105</v>
+        <v>0.23103221893310499</v>
       </c>
       <c r="AE4" s="3">
-        <v>0.232427425384521</v>
+        <v>0.23242742538452099</v>
       </c>
       <c r="AF4" s="3">
         <v>0.234780406951904</v>
       </c>
       <c r="AG4" s="3">
-        <v>0.236722850799561</v>
+        <v>0.23672285079956101</v>
       </c>
       <c r="AH4" s="3">
-        <v>0.236283721923828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>0.23628372192382799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0604846906661987</v>
+        <v>6.0484690666198701E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0581690263748169</v>
+        <v>5.8169026374816898E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0591481161117554</v>
+        <v>5.9148116111755397E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0584465408325195</v>
+        <v>5.8446540832519503E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0574363470077515</v>
+        <v>5.74363470077515E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>0.0570912933349609</v>
+        <v>5.7091293334960901E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>0.057039680480957</v>
+        <v>5.7039680480956999E-2</v>
       </c>
       <c r="K5" s="3">
-        <v>0.0573985862731934</v>
+        <v>5.73985862731934E-2</v>
       </c>
       <c r="L5" s="3">
-        <v>0.0575616550445557</v>
+        <v>5.7561655044555703E-2</v>
       </c>
       <c r="M5" s="3">
-        <v>0.0578604555130005</v>
+        <v>5.7860455513000501E-2</v>
       </c>
       <c r="N5" s="3">
-        <v>0.0582801008224487</v>
+        <v>5.8280100822448701E-2</v>
       </c>
       <c r="O5" s="3">
-        <v>0.0588662052154541</v>
+        <v>5.8866205215454097E-2</v>
       </c>
       <c r="P5" s="3">
-        <v>0.0598606014251709</v>
+        <v>5.9860601425170898E-2</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0608408451080322</v>
+        <v>6.0840845108032199E-2</v>
       </c>
       <c r="R5" s="3">
-        <v>0.0620018005371094</v>
+        <v>6.2001800537109401E-2</v>
       </c>
       <c r="S5" s="3">
-        <v>0.0637933969497681</v>
+        <v>6.37933969497681E-2</v>
       </c>
       <c r="T5" s="3">
-        <v>0.0671964502334595</v>
+        <v>6.7196450233459507E-2</v>
       </c>
       <c r="U5" s="3">
-        <v>0.0739063692092896</v>
+        <v>7.3906369209289599E-2</v>
       </c>
       <c r="V5" s="3">
-        <v>0.0868632221221924</v>
+        <v>8.6863222122192399E-2</v>
       </c>
       <c r="W5" s="3">
         <v>0.110627927780151</v>
       </c>
       <c r="X5" s="3">
-        <v>0.147406635284424</v>
+        <v>0.14740663528442399</v>
       </c>
       <c r="Y5" s="3">
         <v>0.184524116516113</v>
       </c>
       <c r="Z5" s="3">
-        <v>0.207641906738281</v>
+        <v>0.20764190673828101</v>
       </c>
       <c r="AA5" s="3">
-        <v>0.218842277526855</v>
+        <v>0.21884227752685501</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.223704528808594</v>
+        <v>0.22370452880859401</v>
       </c>
       <c r="AC5" s="3">
-        <v>0.227108097076416</v>
+        <v>0.22710809707641599</v>
       </c>
       <c r="AD5" s="3">
         <v>0.228244762420654</v>
       </c>
       <c r="AE5" s="3">
-        <v>0.230338611602783</v>
+        <v>0.23033861160278299</v>
       </c>
       <c r="AF5" s="3">
-        <v>0.232460975646973</v>
+        <v>0.23246097564697299</v>
       </c>
       <c r="AG5" s="3">
-        <v>0.233127040863037</v>
+        <v>0.23312704086303701</v>
       </c>
       <c r="AH5" s="3">
-        <v>0.235018463134766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>0.23501846313476599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>0.0608252000808716</v>
+        <v>6.0825200080871597E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0584087753295898</v>
+        <v>5.8408775329589803E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>0.058628716468811</v>
+        <v>5.8628716468811001E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0579341888427734</v>
+        <v>5.7934188842773397E-2</v>
       </c>
       <c r="H6" s="3">
-        <v>0.057053370475769</v>
+        <v>5.7053370475769E-2</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0564542436599731</v>
+        <v>5.6454243659973098E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>0.0562851524353027</v>
+        <v>5.6285152435302702E-2</v>
       </c>
       <c r="K6" s="3">
-        <v>0.0566809415817261</v>
+        <v>5.6680941581726103E-2</v>
       </c>
       <c r="L6" s="3">
-        <v>0.0569896221160889</v>
+        <v>5.6989622116088899E-2</v>
       </c>
       <c r="M6" s="3">
-        <v>0.0569701099395752</v>
+        <v>5.69701099395752E-2</v>
       </c>
       <c r="N6" s="3">
-        <v>0.0577393293380737</v>
+        <v>5.77393293380737E-2</v>
       </c>
       <c r="O6" s="3">
-        <v>0.0584164190292358</v>
+        <v>5.8416419029235798E-2</v>
       </c>
       <c r="P6" s="3">
-        <v>0.0594346189498901</v>
+        <v>5.9434618949890099E-2</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0603427696228027</v>
+        <v>6.0342769622802703E-2</v>
       </c>
       <c r="R6" s="3">
-        <v>0.0617312431335449</v>
+        <v>6.1731243133544902E-2</v>
       </c>
       <c r="S6" s="3">
-        <v>0.0636077499389648</v>
+        <v>6.36077499389648E-2</v>
       </c>
       <c r="T6" s="3">
-        <v>0.0669618844985962</v>
+        <v>6.6961884498596205E-2</v>
       </c>
       <c r="U6" s="3">
-        <v>0.0734183788299561</v>
+        <v>7.3418378829956096E-2</v>
       </c>
       <c r="V6" s="3">
-        <v>0.085586051940918</v>
+        <v>8.5586051940918006E-2</v>
       </c>
       <c r="W6" s="3">
         <v>0.108303203582764</v>
       </c>
       <c r="X6" s="3">
-        <v>0.145037622451782</v>
+        <v>0.14503762245178201</v>
       </c>
       <c r="Y6" s="3">
-        <v>0.183207912445068</v>
+        <v>0.18320791244506801</v>
       </c>
       <c r="Z6" s="3">
-        <v>0.206281642913818</v>
+        <v>0.20628164291381801</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.216182613372803</v>
+        <v>0.21618261337280301</v>
       </c>
       <c r="AB6" s="3">
         <v>0.221253490447998</v>
       </c>
       <c r="AC6" s="3">
-        <v>0.224600658416748</v>
+        <v>0.22460065841674801</v>
       </c>
       <c r="AD6" s="3">
         <v>0.22589427947998</v>
@@ -1512,90 +1588,90 @@
         <v>0.231453704833984</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0581133985519409</v>
+        <v>5.8113398551940899E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.056320538520813</v>
+        <v>5.6320538520813E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.056868691444397</v>
+        <v>5.6868691444396997E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0567640495300293</v>
+        <v>5.6764049530029302E-2</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0558937931060791</v>
+        <v>5.5893793106079101E-2</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0556854391098022</v>
+        <v>5.5685439109802198E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>0.0553034162521362</v>
+        <v>5.5303416252136202E-2</v>
       </c>
       <c r="K7" s="3">
-        <v>0.0554635763168335</v>
+        <v>5.5463576316833497E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.0558528470993042</v>
+        <v>5.5852847099304201E-2</v>
       </c>
       <c r="M7" s="3">
-        <v>0.0562560415267944</v>
+        <v>5.6256041526794399E-2</v>
       </c>
       <c r="N7" s="3">
-        <v>0.0569236183166504</v>
+        <v>5.6923618316650403E-2</v>
       </c>
       <c r="O7" s="3">
-        <v>0.0579460954666138</v>
+        <v>5.7946095466613799E-2</v>
       </c>
       <c r="P7" s="3">
-        <v>0.059077000617981</v>
+        <v>5.9077000617980997E-2</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0602908563613892</v>
+        <v>6.02908563613892E-2</v>
       </c>
       <c r="R7" s="3">
-        <v>0.0618582773208618</v>
+        <v>6.1858277320861799E-2</v>
       </c>
       <c r="S7" s="3">
-        <v>0.0641257858276367</v>
+        <v>6.41257858276367E-2</v>
       </c>
       <c r="T7" s="3">
-        <v>0.0681299877166748</v>
+        <v>6.8129987716674806E-2</v>
       </c>
       <c r="U7" s="3">
-        <v>0.0757279968261719</v>
+        <v>7.5727996826171901E-2</v>
       </c>
       <c r="V7" s="3">
-        <v>0.089467248916626</v>
+        <v>8.9467248916625997E-2</v>
       </c>
       <c r="W7" s="3">
         <v>0.113290719985962</v>
       </c>
       <c r="X7" s="3">
-        <v>0.149960737228394</v>
+        <v>0.14996073722839401</v>
       </c>
       <c r="Y7" s="3">
         <v>0.187785034179688</v>
       </c>
       <c r="Z7" s="3">
-        <v>0.213262748718262</v>
+        <v>0.21326274871826201</v>
       </c>
       <c r="AA7" s="3">
         <v>0.223691310882568</v>
       </c>
       <c r="AB7" s="3">
-        <v>0.229285621643066</v>
+        <v>0.22928562164306601</v>
       </c>
       <c r="AC7" s="3">
         <v>0.232326316833496</v>
@@ -1604,84 +1680,84 @@
         <v>0.234561347961426</v>
       </c>
       <c r="AE7" s="3">
-        <v>0.234805164337158</v>
+        <v>0.23480516433715801</v>
       </c>
       <c r="AF7" s="3">
-        <v>0.236994304656982</v>
+        <v>0.23699430465698201</v>
       </c>
       <c r="AG7" s="3">
-        <v>0.238808212280273</v>
+        <v>0.23880821228027299</v>
       </c>
       <c r="AH7" s="3">
         <v>0.239914398193359</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0501804161071777</v>
+        <v>5.0180416107177703E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0493967008590698</v>
+        <v>4.9396700859069803E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0500401878356934</v>
+        <v>5.0040187835693403E-2</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0499395799636841</v>
+        <v>4.9939579963684103E-2</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0493408012390137</v>
+        <v>4.9340801239013701E-2</v>
       </c>
       <c r="I8" s="3">
-        <v>0.0491922950744629</v>
+        <v>4.9192295074462898E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>0.049077410697937</v>
+        <v>4.9077410697937002E-2</v>
       </c>
       <c r="K8" s="3">
-        <v>0.0493696975708008</v>
+        <v>4.93696975708008E-2</v>
       </c>
       <c r="L8" s="3">
-        <v>0.0496761655807495</v>
+        <v>4.9676165580749498E-2</v>
       </c>
       <c r="M8" s="3">
-        <v>0.0501491403579712</v>
+        <v>5.0149140357971203E-2</v>
       </c>
       <c r="N8" s="3">
-        <v>0.0507910871505737</v>
+        <v>5.0791087150573698E-2</v>
       </c>
       <c r="O8" s="3">
-        <v>0.0517273044586182</v>
+        <v>5.1727304458618201E-2</v>
       </c>
       <c r="P8" s="3">
-        <v>0.0527602672576904</v>
+        <v>5.2760267257690403E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0541686773300171</v>
+        <v>5.4168677330017102E-2</v>
       </c>
       <c r="R8" s="3">
-        <v>0.0557151222229004</v>
+        <v>5.5715122222900398E-2</v>
       </c>
       <c r="S8" s="3">
-        <v>0.0580307054519653</v>
+        <v>5.80307054519653E-2</v>
       </c>
       <c r="T8" s="3">
-        <v>0.0623624992370605</v>
+        <v>6.2362499237060498E-2</v>
       </c>
       <c r="U8" s="3">
-        <v>0.0701706027984619</v>
+        <v>7.0170602798461906E-2</v>
       </c>
       <c r="V8" s="3">
-        <v>0.0847216796875</v>
+        <v>8.4721679687499996E-2</v>
       </c>
       <c r="W8" s="3">
         <v>0.110247573852539</v>
@@ -1693,10 +1769,10 @@
         <v>0.186979808807373</v>
       </c>
       <c r="Z8" s="3">
-        <v>0.210637626647949</v>
+        <v>0.21063762664794899</v>
       </c>
       <c r="AA8" s="3">
-        <v>0.220550632476807</v>
+        <v>0.22055063247680701</v>
       </c>
       <c r="AB8" s="3">
         <v>0.225523719787598</v>
@@ -1705,114 +1781,114 @@
         <v>0.229110546112061</v>
       </c>
       <c r="AD8" s="3">
-        <v>0.230958099365234</v>
+        <v>0.23095809936523401</v>
       </c>
       <c r="AE8" s="3">
-        <v>0.230644950866699</v>
+        <v>0.23064495086669901</v>
       </c>
       <c r="AF8" s="3">
         <v>0.23257640838623</v>
       </c>
       <c r="AG8" s="3">
-        <v>0.234454383850098</v>
+        <v>0.23445438385009801</v>
       </c>
       <c r="AH8" s="3">
-        <v>0.235766696929932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+        <v>0.23576669692993199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3">
-        <v>0.0472811412811279</v>
+        <v>4.7281141281127897E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0461573314666748</v>
+        <v>4.6157331466674799E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0468353319168091</v>
+        <v>4.6835331916809102E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0465174150466919</v>
+        <v>4.65174150466919E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0459764099121094</v>
+        <v>4.5976409912109398E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0458381175994873</v>
+        <v>4.5838117599487298E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>0.0458720827102661</v>
+        <v>4.5872082710266097E-2</v>
       </c>
       <c r="K9" s="3">
-        <v>0.0461264562606812</v>
+        <v>4.6126456260681202E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>0.0462297630310059</v>
+        <v>4.6229763031005899E-2</v>
       </c>
       <c r="M9" s="3">
-        <v>0.0464987468719482</v>
+        <v>4.6498746871948202E-2</v>
       </c>
       <c r="N9" s="3">
-        <v>0.0471254539489746</v>
+        <v>4.7125453948974598E-2</v>
       </c>
       <c r="O9" s="3">
-        <v>0.0477555751800537</v>
+        <v>4.7755575180053703E-2</v>
       </c>
       <c r="P9" s="3">
-        <v>0.0487083196640015</v>
+        <v>4.87083196640015E-2</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0497105026245117</v>
+        <v>4.9710502624511703E-2</v>
       </c>
       <c r="R9" s="3">
-        <v>0.0509796905517578</v>
+        <v>5.09796905517578E-2</v>
       </c>
       <c r="S9" s="3">
-        <v>0.0528757190704346</v>
+        <v>5.2875719070434597E-2</v>
       </c>
       <c r="T9" s="3">
-        <v>0.0563358449935913</v>
+        <v>5.6335844993591302E-2</v>
       </c>
       <c r="U9" s="3">
-        <v>0.0632814168930054</v>
+        <v>6.3281416893005399E-2</v>
       </c>
       <c r="V9" s="3">
-        <v>0.0764146614074707</v>
+        <v>7.6414661407470705E-2</v>
       </c>
       <c r="W9" s="3">
-        <v>0.100516757965088</v>
+        <v>0.10051675796508799</v>
       </c>
       <c r="X9" s="3">
-        <v>0.137360782623291</v>
+        <v>0.13736078262329099</v>
       </c>
       <c r="Y9" s="3">
         <v>0.175220642089844</v>
       </c>
       <c r="Z9" s="3">
-        <v>0.198217811584473</v>
+        <v>0.19821781158447299</v>
       </c>
       <c r="AA9" s="3">
         <v>0.208875617980957</v>
       </c>
       <c r="AB9" s="3">
-        <v>0.214390773773193</v>
+        <v>0.21439077377319299</v>
       </c>
       <c r="AC9" s="3">
-        <v>0.218034572601318</v>
+        <v>0.21803457260131801</v>
       </c>
       <c r="AD9" s="3">
-        <v>0.219301795959473</v>
+        <v>0.21930179595947299</v>
       </c>
       <c r="AE9" s="3">
-        <v>0.220323696136475</v>
+        <v>0.22032369613647501</v>
       </c>
       <c r="AF9" s="3">
         <v>0.222188282012939</v>
@@ -1821,15 +1897,15 @@
         <v>0.223706951141357</v>
       </c>
       <c r="AH9" s="3">
-        <v>0.222948799133301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+        <v>0.22294879913330101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1838,7 +1914,7 @@
         <v>0.128081216812134</v>
       </c>
       <c r="E10" s="3">
-        <v>0.123743143081665</v>
+        <v>0.12374314308166499</v>
       </c>
       <c r="F10" s="3">
         <v>0.122920799255371</v>
@@ -1850,10 +1926,10 @@
         <v>0.122119817733765</v>
       </c>
       <c r="I10" s="3">
-        <v>0.121163940429688</v>
+        <v>0.12116394042968801</v>
       </c>
       <c r="J10" s="3">
-        <v>0.12197925567627</v>
+        <v>0.12197925567626999</v>
       </c>
       <c r="K10" s="3">
         <v>0.124124412536621</v>
@@ -1862,28 +1938,28 @@
         <v>0.125716571807861</v>
       </c>
       <c r="M10" s="3">
-        <v>0.126250343322754</v>
+        <v>0.12625034332275401</v>
       </c>
       <c r="N10" s="3">
-        <v>0.127763137817383</v>
+        <v>0.12776313781738299</v>
       </c>
       <c r="O10" s="3">
-        <v>0.129419326782227</v>
+        <v>0.12941932678222701</v>
       </c>
       <c r="P10" s="3">
-        <v>0.131472272872925</v>
+        <v>0.13147227287292501</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.133657569885254</v>
+        <v>0.13365756988525401</v>
       </c>
       <c r="R10" s="3">
         <v>0.135633020401001</v>
       </c>
       <c r="S10" s="3">
-        <v>0.138146324157715</v>
+        <v>0.13814632415771499</v>
       </c>
       <c r="T10" s="3">
-        <v>0.142103567123413</v>
+        <v>0.14210356712341299</v>
       </c>
       <c r="U10" s="3">
         <v>0.149410982131958</v>
@@ -1892,319 +1968,319 @@
         <v>0.16320198059082</v>
       </c>
       <c r="W10" s="3">
-        <v>0.188836555480957</v>
+        <v>0.18883655548095701</v>
       </c>
       <c r="X10" s="3">
-        <v>0.228750381469727</v>
+        <v>0.22875038146972701</v>
       </c>
       <c r="Y10" s="3">
-        <v>0.270160846710205</v>
+        <v>0.27016084671020502</v>
       </c>
       <c r="Z10" s="3">
         <v>0.296621170043945</v>
       </c>
       <c r="AA10" s="3">
-        <v>0.308766193389893</v>
+        <v>0.30876619338989297</v>
       </c>
       <c r="AB10" s="3">
-        <v>0.31569429397583</v>
+        <v>0.31569429397582999</v>
       </c>
       <c r="AC10" s="3">
         <v>0.3209814453125</v>
       </c>
       <c r="AD10" s="3">
-        <v>0.323150367736816</v>
+        <v>0.32315036773681599</v>
       </c>
       <c r="AE10" s="3">
-        <v>0.32504566192627</v>
+        <v>0.32504566192626999</v>
       </c>
       <c r="AF10" s="3">
-        <v>0.326854782104492</v>
+        <v>0.32685478210449198</v>
       </c>
       <c r="AG10" s="3">
-        <v>0.328129425048828</v>
+        <v>0.32812942504882803</v>
       </c>
       <c r="AH10" s="3">
-        <v>0.328201866149902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+        <v>0.32820186614990199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>0.0731126165390015</v>
+        <v>7.3112616539001501E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0722900629043579</v>
+        <v>7.2290062904357896E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0736344528198242</v>
+        <v>7.3634452819824198E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0742706966400146</v>
+        <v>7.4270696640014594E-2</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0735138130187988</v>
+        <v>7.3513813018798793E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>0.0734236764907837</v>
+        <v>7.3423676490783699E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>0.0732873010635376</v>
+        <v>7.3287301063537605E-2</v>
       </c>
       <c r="K11" s="3">
-        <v>0.074525408744812</v>
+        <v>7.4525408744812005E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>0.0753275060653687</v>
+        <v>7.5327506065368699E-2</v>
       </c>
       <c r="M11" s="3">
-        <v>0.0758120727539063</v>
+        <v>7.5812072753906307E-2</v>
       </c>
       <c r="N11" s="3">
-        <v>0.0769084310531616</v>
+        <v>7.6908431053161599E-2</v>
       </c>
       <c r="O11" s="3">
-        <v>0.0779342412948608</v>
+        <v>7.7934241294860804E-2</v>
       </c>
       <c r="P11" s="3">
-        <v>0.0794991683959961</v>
+        <v>7.9499168395996106E-2</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0809281444549561</v>
+        <v>8.0928144454956094E-2</v>
       </c>
       <c r="R11" s="3">
-        <v>0.0826968002319336</v>
+        <v>8.2696800231933598E-2</v>
       </c>
       <c r="S11" s="3">
-        <v>0.0847564029693604</v>
+        <v>8.4756402969360406E-2</v>
       </c>
       <c r="T11" s="3">
-        <v>0.0882987022399902</v>
+        <v>8.8298702239990201E-2</v>
       </c>
       <c r="U11" s="3">
-        <v>0.0953048515319824</v>
+        <v>9.5304851531982399E-2</v>
       </c>
       <c r="V11" s="3">
         <v>0.108600826263428</v>
       </c>
       <c r="W11" s="3">
-        <v>0.132777194976807</v>
+        <v>0.13277719497680701</v>
       </c>
       <c r="X11" s="3">
         <v>0.170846214294434</v>
       </c>
       <c r="Y11" s="3">
-        <v>0.211659164428711</v>
+        <v>0.21165916442871099</v>
       </c>
       <c r="Z11" s="3">
-        <v>0.238347492218018</v>
+        <v>0.23834749221801799</v>
       </c>
       <c r="AA11" s="3">
-        <v>0.250708351135254</v>
+        <v>0.25070835113525403</v>
       </c>
       <c r="AB11" s="3">
-        <v>0.256738338470459</v>
+        <v>0.25673833847045902</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.261010208129883</v>
+        <v>0.26101020812988301</v>
       </c>
       <c r="AD11" s="3">
-        <v>0.263033294677734</v>
+        <v>0.26303329467773401</v>
       </c>
       <c r="AE11" s="3">
-        <v>0.264470520019531</v>
+        <v>0.26447052001953097</v>
       </c>
       <c r="AF11" s="3">
         <v>0.267202472686768</v>
       </c>
       <c r="AG11" s="3">
-        <v>0.269210166931152</v>
+        <v>0.26921016693115202</v>
       </c>
       <c r="AH11" s="3">
-        <v>0.268699550628662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+        <v>0.26869955062866202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3">
-        <v>0.0631727123260498</v>
+        <v>6.3172712326049804E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0616460943222046</v>
+        <v>6.1646094322204602E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0624997425079346</v>
+        <v>6.2499742507934601E-2</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0629356288909912</v>
+        <v>6.2935628890991205E-2</v>
       </c>
       <c r="H12" s="3">
-        <v>0.06255042552948</v>
+        <v>6.2550425529479994E-2</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0625760459899902</v>
+        <v>6.2576045989990198E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>0.062602915763855</v>
+        <v>6.2602915763855002E-2</v>
       </c>
       <c r="K12" s="3">
-        <v>0.0634845876693726</v>
+        <v>6.3484587669372594E-2</v>
       </c>
       <c r="L12" s="3">
-        <v>0.0641389989852905</v>
+        <v>6.4138998985290505E-2</v>
       </c>
       <c r="M12" s="3">
-        <v>0.064586033821106</v>
+        <v>6.4586033821106004E-2</v>
       </c>
       <c r="N12" s="3">
-        <v>0.0655921936035156</v>
+        <v>6.5592193603515606E-2</v>
       </c>
       <c r="O12" s="3">
-        <v>0.0665010738372803</v>
+        <v>6.6501073837280295E-2</v>
       </c>
       <c r="P12" s="3">
-        <v>0.0678252124786377</v>
+        <v>6.7825212478637695E-2</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0692996311187744</v>
+        <v>6.9299631118774394E-2</v>
       </c>
       <c r="R12" s="3">
-        <v>0.0710053586959839</v>
+        <v>7.10053586959839E-2</v>
       </c>
       <c r="S12" s="3">
-        <v>0.0729416513442993</v>
+        <v>7.2941651344299294E-2</v>
       </c>
       <c r="T12" s="3">
-        <v>0.0766550207138062</v>
+        <v>7.6655020713806199E-2</v>
       </c>
       <c r="U12" s="3">
-        <v>0.0838981819152832</v>
+        <v>8.3898181915283199E-2</v>
       </c>
       <c r="V12" s="3">
-        <v>0.0974594116210938</v>
+        <v>9.7459411621093797E-2</v>
       </c>
       <c r="W12" s="3">
-        <v>0.122020034790039</v>
+        <v>0.12202003479003901</v>
       </c>
       <c r="X12" s="3">
-        <v>0.15967306137085</v>
+        <v>0.15967306137084999</v>
       </c>
       <c r="Y12" s="3">
-        <v>0.199297943115234</v>
+        <v>0.19929794311523399</v>
       </c>
       <c r="Z12" s="3">
         <v>0.225334587097168</v>
       </c>
       <c r="AA12" s="3">
-        <v>0.237574348449707</v>
+        <v>0.23757434844970701</v>
       </c>
       <c r="AB12" s="3">
-        <v>0.243111610412598</v>
+        <v>0.24311161041259799</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.247378997802734</v>
+        <v>0.24737899780273401</v>
       </c>
       <c r="AD12" s="3">
-        <v>0.249439449310303</v>
+        <v>0.24943944931030301</v>
       </c>
       <c r="AE12" s="3">
-        <v>0.25012020111084</v>
+        <v>0.25012020111083999</v>
       </c>
       <c r="AF12" s="3">
-        <v>0.251834564208984</v>
+        <v>0.25183456420898398</v>
       </c>
       <c r="AG12" s="3">
         <v>0.254358444213867</v>
       </c>
       <c r="AH12" s="3">
-        <v>0.253441982269287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+        <v>0.25344198226928699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3">
-        <v>0.0533335733413696</v>
+        <v>5.3333573341369601E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0523363590240479</v>
+        <v>5.2336359024047902E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0532485008239746</v>
+        <v>5.3248500823974601E-2</v>
       </c>
       <c r="G13" s="3">
-        <v>0.053631911277771</v>
+        <v>5.3631911277770998E-2</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0530191707611084</v>
+        <v>5.3019170761108403E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>0.0529226207733154</v>
+        <v>5.2922620773315401E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>0.0527015256881714</v>
+        <v>5.2701525688171401E-2</v>
       </c>
       <c r="K13" s="3">
-        <v>0.0534567356109619</v>
+        <v>5.3456735610961897E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>0.0541134119033813</v>
+        <v>5.41134119033813E-2</v>
       </c>
       <c r="M13" s="3">
-        <v>0.054648232460022</v>
+        <v>5.4648232460021998E-2</v>
       </c>
       <c r="N13" s="3">
-        <v>0.0554016304016113</v>
+        <v>5.54016304016113E-2</v>
       </c>
       <c r="O13" s="3">
-        <v>0.0566408061981201</v>
+        <v>5.6640806198120099E-2</v>
       </c>
       <c r="P13" s="3">
-        <v>0.0577323389053345</v>
+        <v>5.7732338905334503E-2</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0591997957229614</v>
+        <v>5.9199795722961399E-2</v>
       </c>
       <c r="R13" s="3">
-        <v>0.0607588291168213</v>
+        <v>6.0758829116821303E-2</v>
       </c>
       <c r="S13" s="3">
-        <v>0.0628447008132935</v>
+        <v>6.2844700813293505E-2</v>
       </c>
       <c r="T13" s="3">
-        <v>0.0666175127029419</v>
+        <v>6.6617512702941903E-2</v>
       </c>
       <c r="U13" s="3">
-        <v>0.0741437768936157</v>
+        <v>7.4143776893615704E-2</v>
       </c>
       <c r="V13" s="3">
-        <v>0.0882120990753174</v>
+        <v>8.8212099075317393E-2</v>
       </c>
       <c r="W13" s="3">
-        <v>0.113660707473755</v>
+        <v>0.11366070747375499</v>
       </c>
       <c r="X13" s="3">
         <v>0.152540130615234</v>
@@ -2222,288 +2298,292 @@
         <v>0.237599830627441</v>
       </c>
       <c r="AC13" s="3">
-        <v>0.242010688781738</v>
+        <v>0.24201068878173801</v>
       </c>
       <c r="AD13" s="3">
-        <v>0.244385242462158</v>
+        <v>0.24438524246215801</v>
       </c>
       <c r="AE13" s="3">
-        <v>0.244382591247559</v>
+        <v>0.24438259124755901</v>
       </c>
       <c r="AF13" s="3">
-        <v>0.245775203704834</v>
+        <v>0.24577520370483399</v>
       </c>
       <c r="AG13" s="3">
-        <v>0.248003387451172</v>
+        <v>0.24800338745117201</v>
       </c>
       <c r="AH13" s="3">
-        <v>0.247837753295898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+        <v>0.24783775329589799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="3">
-        <v>0.0512798738479614</v>
+        <v>5.1279873847961399E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>0.050619945526123</v>
+        <v>5.0619945526122999E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0515792798995972</v>
+        <v>5.1579279899597201E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0522679662704468</v>
+        <v>5.2267966270446803E-2</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0520591020584106</v>
+        <v>5.2059102058410599E-2</v>
       </c>
       <c r="I14" s="3">
-        <v>0.0521451711654663</v>
+        <v>5.2145171165466297E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>0.052152042388916</v>
+        <v>5.2152042388915999E-2</v>
       </c>
       <c r="K14" s="3">
-        <v>0.0530366086959839</v>
+        <v>5.3036608695983901E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>0.0537215232849121</v>
+        <v>5.3721523284912101E-2</v>
       </c>
       <c r="M14" s="3">
-        <v>0.0543622779846191</v>
+        <v>5.4362277984619102E-2</v>
       </c>
       <c r="N14" s="3">
-        <v>0.0553452348709106</v>
+        <v>5.5345234870910601E-2</v>
       </c>
       <c r="O14" s="3">
-        <v>0.0566947317123413</v>
+        <v>5.6694731712341302E-2</v>
       </c>
       <c r="P14" s="3">
-        <v>0.0583315992355347</v>
+        <v>5.8331599235534701E-2</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0602030372619629</v>
+        <v>6.0203037261962897E-2</v>
       </c>
       <c r="R14" s="3">
-        <v>0.0621686697006226</v>
+        <v>6.2168669700622597E-2</v>
       </c>
       <c r="S14" s="3">
-        <v>0.0649105405807495</v>
+        <v>6.4910540580749507E-2</v>
       </c>
       <c r="T14" s="3">
-        <v>0.0698771381378174</v>
+        <v>6.9877138137817402E-2</v>
       </c>
       <c r="U14" s="3">
-        <v>0.0789086532592773</v>
+        <v>7.8908653259277303E-2</v>
       </c>
       <c r="V14" s="3">
-        <v>0.095367317199707</v>
+        <v>9.5367317199706994E-2</v>
       </c>
       <c r="W14" s="3">
         <v>0.124200963973999</v>
       </c>
       <c r="X14" s="3">
-        <v>0.166361465454102</v>
+        <v>0.16636146545410199</v>
       </c>
       <c r="Y14" s="3">
-        <v>0.208970623016357</v>
+        <v>0.20897062301635699</v>
       </c>
       <c r="Z14" s="3">
-        <v>0.23537353515625</v>
+        <v>0.23537353515625001</v>
       </c>
       <c r="AA14" s="3">
-        <v>0.247146911621094</v>
+        <v>0.24714691162109401</v>
       </c>
       <c r="AB14" s="3">
-        <v>0.252912292480469</v>
+        <v>0.25291229248046898</v>
       </c>
       <c r="AC14" s="3">
-        <v>0.256407890319824</v>
+        <v>0.25640789031982397</v>
       </c>
       <c r="AD14" s="3">
-        <v>0.258892860412598</v>
+        <v>0.25889286041259801</v>
       </c>
       <c r="AE14" s="3">
-        <v>0.258620891571045</v>
+        <v>0.25862089157104501</v>
       </c>
       <c r="AF14" s="3">
-        <v>0.261114082336426</v>
+        <v>0.26111408233642602</v>
       </c>
       <c r="AG14" s="3">
-        <v>0.263420162200928</v>
+        <v>0.26342016220092801</v>
       </c>
       <c r="AH14" s="3">
-        <v>0.264067611694336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>0.26406761169433601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>45524.7668055556</v>
+        <v>45524.766805555599</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="3">
-        <v>0.05628249168396</v>
+        <v>5.6282491683959997E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0560841703414917</v>
+        <v>5.6084170341491699E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0570695495605469</v>
+        <v>5.7069549560546898E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>0.05776282787323</v>
+        <v>5.7762827873229998E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0576021385192871</v>
+        <v>5.7602138519287097E-2</v>
       </c>
       <c r="I15" s="3">
-        <v>0.057465181350708</v>
+        <v>5.7465181350708001E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>0.0580888080596924</v>
+        <v>5.8088808059692403E-2</v>
       </c>
       <c r="K15" s="3">
-        <v>0.0589049625396729</v>
+        <v>5.8904962539672902E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>0.0598336219787598</v>
+        <v>5.9833621978759799E-2</v>
       </c>
       <c r="M15" s="3">
-        <v>0.0604292392730713</v>
+        <v>6.0429239273071297E-2</v>
       </c>
       <c r="N15" s="3">
-        <v>0.0615507078170776</v>
+        <v>6.1550707817077603E-2</v>
       </c>
       <c r="O15" s="3">
-        <v>0.0629584789276123</v>
+        <v>6.2958478927612305E-2</v>
       </c>
       <c r="P15" s="3">
-        <v>0.0646840763092041</v>
+        <v>6.46840763092041E-2</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.0665983724594116</v>
+        <v>6.6598372459411595E-2</v>
       </c>
       <c r="R15" s="3">
-        <v>0.0689343452453613</v>
+        <v>6.8934345245361295E-2</v>
       </c>
       <c r="S15" s="3">
-        <v>0.071939902305603</v>
+        <v>7.1939902305603001E-2</v>
       </c>
       <c r="T15" s="3">
-        <v>0.0772057390213013</v>
+        <v>7.7205739021301303E-2</v>
       </c>
       <c r="U15" s="3">
-        <v>0.0872573184967041</v>
+        <v>8.7257318496704095E-2</v>
       </c>
       <c r="V15" s="3">
-        <v>0.105512704849243</v>
+        <v>0.10551270484924299</v>
       </c>
       <c r="W15" s="3">
         <v>0.137097434997559</v>
       </c>
       <c r="X15" s="3">
-        <v>0.183308773040771</v>
+        <v>0.18330877304077101</v>
       </c>
       <c r="Y15" s="3">
         <v>0.230181274414062</v>
       </c>
       <c r="Z15" s="3">
-        <v>0.258567504882812</v>
+        <v>0.25856750488281199</v>
       </c>
       <c r="AA15" s="3">
-        <v>0.27096227645874</v>
+        <v>0.27096227645873999</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.27713321685791</v>
+        <v>0.27713321685790998</v>
       </c>
       <c r="AC15" s="3">
-        <v>0.281137084960937</v>
+        <v>0.28113708496093698</v>
       </c>
       <c r="AD15" s="3">
-        <v>0.281655254364014</v>
+        <v>0.28165525436401401</v>
       </c>
       <c r="AE15" s="3">
-        <v>0.283211116790771</v>
+        <v>0.28321111679077099</v>
       </c>
       <c r="AF15" s="3">
-        <v>0.284870262145996</v>
+        <v>0.28487026214599598</v>
       </c>
       <c r="AG15" s="3">
-        <v>0.287642631530762</v>
+        <v>0.28764263153076203</v>
       </c>
       <c r="AH15" s="3">
-        <v>0.287787322998047</v>
+        <v>0.28778732299804699</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.5347" customWidth="1"/>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="280" customHeight="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="280" customHeight="1">
+    <row r="3" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="280" customHeight="1">
+    <row r="4" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="280" customHeight="1">
+    <row r="5" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="280" customHeight="1">
+    <row r="6" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="280" customHeight="1">
+    <row r="7" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="280" customHeight="1">
+    <row r="8" spans="1:2" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>